--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Provincia-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,14 +587,11 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,09</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>8,4</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
+          <t>-2,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,87</t>
+          <t>-3,15; 3,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,69</t>
+          <t>-4,88; 0,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,55</t>
+          <t>-1,1; 10,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 12,6</t>
+          <t>-6,56; 1,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 17,88</t>
+          <t>-0,53; 5,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,72</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>4,27; 8,38</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>6,23; 11,07</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 5,47</t>
+          <t>-4,72; 0,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-37,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>56,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-30,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-33,49%</t>
         </is>
       </c>
     </row>
@@ -791,54 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,11; 143,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,83; 48,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; 177,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,93; 21,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,77; 121,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-59,37; 2,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,16</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,11</t>
+          <t>2,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 7,58</t>
+          <t>-6,59; -2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,16</t>
+          <t>-3,15; 2,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,65</t>
+          <t>-6,9; -0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 11,82</t>
+          <t>-0,01; 7,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,75</t>
+          <t>-5,72; -1,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,91; 15,9</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>5,59; 8,96</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 4,44</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 10,75</t>
+          <t>-0,18; 4,39</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-81,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-40,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-54,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>29,66%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,02; -48,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,66; 77,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,56; -0,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 109,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,36; -24,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-2,49; 77,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,93</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,01</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,53</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,47</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>13,59</t>
+          <t>8,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,25</t>
+          <t>-4,09; 0,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,17</t>
+          <t>4,68; 12,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,35; 14,32</t>
+          <t>-7,37; 1,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,56</t>
+          <t>3,24; 12,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,07</t>
+          <t>-4,59; 0,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 19,39</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>3,94; 7,71</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 5,23</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>11,68; 15,88</t>
+          <t>5,03; 10,7</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-45,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>288,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-34,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-37,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>145,7%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,25; 61,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,99; 804,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,09; 22,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,9; 217,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,24; 9,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>65,28; 267,37</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,57</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,42</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,48</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>8,86</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>8,72</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>11,16</t>
+          <t>2,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,57</t>
+          <t>-2,33; 3,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,28</t>
+          <t>1,75; 9,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 13,44</t>
+          <t>-5,52; 4,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,16; 17,09</t>
+          <t>-7,44; 3,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,24; 16,6</t>
+          <t>-3,23; 2,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 15,67</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 11,01</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 11,12</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>8,12; 13,39</t>
+          <t>-1,5; 5,44</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>132,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-6,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-9,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>26,03%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,2; 150,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,44; 345,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,7; 36,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,09; 31,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,73; 37,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-14,21; 71,77</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>12,93</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>7,32</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>9,16</t>
+          <t>-3,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,81; 12,56</t>
+          <t>-8,48; 0,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,01</t>
+          <t>-7,38; 1,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,6</t>
+          <t>-13,86; -0,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,1; 23,4</t>
+          <t>-14,0; 0,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,54; 15,01</t>
+          <t>-10,33; -1,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,05; 15,33</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>10,0; 16,26</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 9,91</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 11,86</t>
+          <t>-8,48; -0,1</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-45,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-29,62%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-42,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-34,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-43,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-29,18%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,74; 17,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,53; 41,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,65; -6,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,26; -2,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,2; -13,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-56,85; -0,71</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>14,95</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>18,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>25,2</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>19,95</t>
+          <t>14,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,95</t>
+          <t>-5,66; 0,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,3</t>
+          <t>6,24; 14,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11,83; 18,51</t>
+          <t>-3,7; 4,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,68</t>
+          <t>14,01; 24,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,26</t>
+          <t>-3,88; 1,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>21,2; 29,31</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 8,06</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>3,11; 6,71</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>17,48; 22,64</t>
+          <t>10,97; 17,51</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-46,53%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>204,3%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>301,08%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-16,8%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>255,94%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,92; 28,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,52; 456,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,02; 111,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>148,39; 561,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,09; 39,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>143,66; 412,07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>5,91</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>12,69</t>
+          <t>6,78</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,29</t>
+          <t>-0,65; 3,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,75</t>
+          <t>3,32; 8,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,33; 10,57</t>
+          <t>-3,17; 3,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,3</t>
+          <t>-2,21; 12,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,58</t>
+          <t>-1,14; 2,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,29; 21,9</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>4,66; 7,51</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 8,21</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>7,26; 15,31</t>
+          <t>1,93; 9,58</t>
         </is>
       </c>
     </row>
@@ -2034,47 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>217,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>114,59%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,57; 199,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,92; 481,93</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,0; 44,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,96; 148,01</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,93; 54,72</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>30,08; 183,11</t>
         </is>
       </c>
     </row>
@@ -2144,47 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>12,4</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>7,23</t>
+          <t>2,68</t>
         </is>
       </c>
     </row>
@@ -2197,47 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,88</t>
+          <t>0,03; 3,06</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,78</t>
+          <t>-0,64; 3,39</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,79</t>
+          <t>-0,36; 5,43</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,29</t>
+          <t>2,49; 8,37</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,37</t>
+          <t>0,45; 3,86</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>10,36; 15,04</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>3,59; 5,66</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>5,47; 8,07</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>4,33; 9,04</t>
+          <t>-0,51; 4,54</t>
         </is>
       </c>
     </row>
@@ -2250,47 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>70,02%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>58,77%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 307,24</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,55; 285,58</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,8; 85,77</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,25; 145,18</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,18; 99,64</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-8,52; 111,29</t>
         </is>
       </c>
     </row>
@@ -2360,47 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>13,94</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>10,43</t>
+          <t>3,96</t>
         </is>
       </c>
     </row>
@@ -2413,47 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,36</t>
+          <t>-1,29; 0,46</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,81</t>
+          <t>1,39; 4,26</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,68</t>
+          <t>-1,6; 1,14</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,44</t>
+          <t>1,63; 6,33</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>7,95; 10,02</t>
+          <t>-1,22; 0,54</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,39</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 7,12</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 6,72</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 11,35</t>
+          <t>2,53; 5,01</t>
         </is>
       </c>
     </row>
@@ -2466,47 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,43%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>86,69%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>61,08%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,8; 15,34</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,77; 134,22</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,37; 13,27</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,52; 72,53</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,79; 8,71</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>37,56; 82,08</t>
         </is>
       </c>
     </row>
@@ -2574,12 +2003,12 @@
   <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
